--- a/secure/26e-David.xlsx
+++ b/secure/26e-David.xlsx
@@ -28,13 +28,13 @@
     <t>c</t>
   </si>
   <si>
-    <t>26e-David-174837</t>
+    <t>26e-David-438679</t>
   </si>
   <si>
-    <t>26e-David-341748</t>
+    <t>26e-David-493097</t>
   </si>
   <si>
-    <t>26e-David-491672</t>
+    <t>26e-David-877187</t>
   </si>
 </sst>
 </file>
@@ -66,7 +66,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="F670048d"/>
+        <fgColor rgb="Ffc7ed13"/>
       </patternFill>
     </fill>
   </fills>
@@ -427,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:WM503"/>
+  <dimension ref="A1:XN503"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1321,11 +1321,14 @@
       </c>
       <c r="M145" s="4"/>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:638" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>-0.424</v>
       </c>
       <c r="M146" s="4"/>
+      <c r="XN146" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
@@ -1585,14 +1588,11 @@
       </c>
       <c r="M189" s="4"/>
     </row>
-    <row r="190" spans="1:133" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>-0.248</v>
       </c>
       <c r="M190" s="4"/>
-      <c r="EC190" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
@@ -1978,14 +1978,11 @@
       </c>
       <c r="M254" s="4"/>
     </row>
-    <row r="255" spans="1:611" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" s="3">
         <v>0.012</v>
       </c>
       <c r="M255" s="4"/>
-      <c r="WM255" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" s="3">
@@ -2137,11 +2134,14 @@
       </c>
       <c r="M280" s="4"/>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:322" x14ac:dyDescent="0.25">
       <c r="A281" s="3">
         <v>0.116</v>
       </c>
       <c r="M281" s="4"/>
+      <c r="LJ281" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282" s="3">
@@ -2401,11 +2401,14 @@
       </c>
       <c r="M324" s="4"/>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:474" x14ac:dyDescent="0.25">
       <c r="A325" s="3">
         <v>0.292</v>
       </c>
       <c r="M325" s="4"/>
+      <c r="RF325" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326" s="3">
@@ -3409,14 +3412,11 @@
       </c>
       <c r="M492" s="4"/>
     </row>
-    <row r="493" spans="1:284" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A493" s="3">
         <v>0.964</v>
       </c>
       <c r="M493" s="4"/>
-      <c r="JX493" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="494" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A494" s="3">
